--- a/Documentation/Technical Documentation Case List.xlsx
+++ b/Documentation/Technical Documentation Case List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>View games</t>
   </si>
@@ -154,18 +154,6 @@
   </si>
   <si>
     <t>Edit the value of isPublished field to "true" if employee wants to publish, updated the view is displayed</t>
-  </si>
-  <si>
-    <t>Update status of order</t>
-  </si>
-  <si>
-    <t>Employee wants to update the status of order</t>
-  </si>
-  <si>
-    <t>Update order status request</t>
-  </si>
-  <si>
-    <t>Update the order of status to "processed" TO BE REMOVED</t>
   </si>
   <si>
     <t>Update ship status</t>
@@ -229,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,12 +236,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -267,34 +249,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,373 +566,413 @@
     <col min="6" max="6" width="95.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="G6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="G7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="G8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="G9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="G11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="G12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>43</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>41</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="G18" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>42</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>42</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>43</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G19" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
